--- a/в бланки заводов/Останкино КИ/ostankino_ki/NV_Poliakov_PRS/чистый бланк/Заказ Новое Время 09,08. Табота№8.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/NV_Poliakov_PRS/чистый бланк/Заказ Новое Время 09,08. Табота№8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\NV_Poliakov_PRS\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75F993C-FB98-4E14-B11B-0CB05DB8B193}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE54C54-34E4-4FB8-9351-8191F137A5B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1650,6 +1650,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="83">
+        <f>D3+3</f>
         <v>45881</v>
       </c>
       <c r="G3" s="87"/>
